--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/73/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/73/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9879879879879879</v>
+        <v>0.8764876487648765</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>526.5265265265266</v>
+        <v>1233.273327332733</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0975975975975976</v>
+        <v>0.06947694769476948</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7737737737737738</v>
+        <v>0.9663966396639664</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854.8548548548549</v>
+        <v>342.8442844284428</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>897.897897897898</v>
+        <v>998.1098109810981</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.8708708708709</v>
+        <v>929.7632763276328</v>
       </c>
     </row>
   </sheetData>
